--- a/biology/Botanique/Salix_uva-ursi/Salix_uva-ursi.xlsx
+++ b/biology/Botanique/Salix_uva-ursi/Salix_uva-ursi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix uva-ursi, le saule raisin-d'ours (Bear berry willow en anglais), est un saule nain natif du nord-est de l'Amérique du Nord (avec le Groenland) bien qu'on ne le trouve pas dans le Nouveau-Brunswick et l'île du Prince Édouard.
 </t>
@@ -511,18 +523,17 @@
           <t>Synonymie, variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix ivigtutiana Lundström ;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Salix ivigtutiana Lundström ;
 Salix arbuscula L. var. labradorica (Andersson) Andersson, Proc. Am. Acad. Arts Sci. 4: 71. 1858.
 Salix cutleri Tuck. Am. J. Sci. 14: 36. 1843.
 Salix cutleri β (var.) labradorica (Andersson) Andersson, in DC. Prodr. 16(2): 292. 1868.
 Salix ivigtutiana Lundstr. Öfvers. Vet. Akad. Förh. 41: 61, 88. 1884.
-Salix myrsinites L. var. parvifolia Andersson, in Blytt, Norges Flora 2: 450. 1861[2].
-S. myrsinites Linnaeus var. parvifolia Lange.
-Hybrides
-Salix uva-ursi forme des hybrides naturellement avec Salix herbacea[1].
-</t>
+Salix myrsinites L. var. parvifolia Andersson, in Blytt, Norges Flora 2: 450. 1861.
+S. myrsinites Linnaeus var. parvifolia Lange.</t>
         </is>
       </c>
     </row>
@@ -547,13 +558,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Synonymie, variétés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hybrides</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix uva-ursi forme des hybrides naturellement avec Salix herbacea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Salix_uva-ursi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salix_uva-ursi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le livre de Newsholme, Willows-Salix genus (Saules - Le genre Salix), mentionne que Salix uva-ursi  pousse généralement sur des roches calcaires à haute altitude, bien que certaines autres références suggèrent qu'il prospère aussi bien sur la roche granitique. Newsholme le décrit également comme : « Un arbre nain très rustique et très remarquable. Cette espèce nécessitant une situation rocheuse bien drainée ». Dans ce cas, nain signifie qu'il atteindra une hauteur maximale d'environ 15 cm[3].
-La floraison a lieu de mi-juin à début août, à une altitude de 10 à 1 200 mètres, au Groenland, Saint-Pierre-et-Miquelon, Terre-Neuve-et-Labrador, N.S., Nunavut, Queensland, Maine, N.H., N.Y., Vt[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livre de Newsholme, Willows-Salix genus (Saules - Le genre Salix), mentionne que Salix uva-ursi  pousse généralement sur des roches calcaires à haute altitude, bien que certaines autres références suggèrent qu'il prospère aussi bien sur la roche granitique. Newsholme le décrit également comme : « Un arbre nain très rustique et très remarquable. Cette espèce nécessitant une situation rocheuse bien drainée ». Dans ce cas, nain signifie qu'il atteindra une hauteur maximale d'environ 15 cm.
+La floraison a lieu de mi-juin à début août, à une altitude de 10 à 1 200 mètres, au Groenland, Saint-Pierre-et-Miquelon, Terre-Neuve-et-Labrador, N.S., Nunavut, Queensland, Maine, N.H., N.Y., Vt.
 Chromosomie : 2n=38.
 </t>
         </is>
